--- a/docentes/Morales Vallejo Jorge Luis - Estadisticos 20202.xlsx
+++ b/docentes/Morales Vallejo Jorge Luis - Estadisticos 20202.xlsx
@@ -91,118 +91,118 @@
     <t>NAMORADO</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>LASTRE</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>NAMIGTLE</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
     <t>ANASTACIO</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
     <t>TELLEZ</t>
   </si>
   <si>
+    <t>ALFONSO</t>
+  </si>
+  <si>
     <t>OSORIO</t>
   </si>
   <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>LASTRE</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>NAMIGTLE</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>ALVAREZ</t>
-  </si>
-  <si>
-    <t>ALFONSO</t>
-  </si>
-  <si>
     <t>PALMA</t>
   </si>
   <si>
     <t>LOPEZ</t>
   </si>
   <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
+    <t>EVARISTO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>MOLOHUA</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CONCHE</t>
+  </si>
+  <si>
     <t>ROMERO</t>
   </si>
   <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>EVARISTO</t>
-  </si>
-  <si>
     <t>VALENCIA</t>
   </si>
   <si>
     <t>MORALES</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>PACHECO</t>
-  </si>
-  <si>
-    <t>MOLOHUA</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>CONCHE</t>
-  </si>
-  <si>
     <t>VICTOR MANUEL</t>
   </si>
   <si>
     <t>LUZ ESTRELLA</t>
   </si>
   <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>ALDAIR ALAN</t>
+  </si>
+  <si>
+    <t>ARANTZA</t>
+  </si>
+  <si>
+    <t>ATENEA</t>
+  </si>
+  <si>
+    <t>JESUS URIEL</t>
+  </si>
+  <si>
+    <t>ANGEL ALDAHIR</t>
+  </si>
+  <si>
+    <t>JAROMI YAJAIRA</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
     <t>HIRAM FABIAN</t>
   </si>
   <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>ALDAIR ALAN</t>
-  </si>
-  <si>
     <t>BENY ALEXANDER</t>
   </si>
   <si>
+    <t>AMERICA MICHELLE</t>
+  </si>
+  <si>
     <t>LUZ CLARA</t>
-  </si>
-  <si>
-    <t>ARANTZA</t>
-  </si>
-  <si>
-    <t>ATENEA</t>
-  </si>
-  <si>
-    <t>JESUS URIEL</t>
-  </si>
-  <si>
-    <t>ANGEL ALDAHIR</t>
-  </si>
-  <si>
-    <t>JAROMI YAJAIRA</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>AMERICA MICHELLE</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920042</v>
+        <v>20330051920052</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920052</v>
+        <v>20330051920097</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920097</v>
+        <v>20330051920310</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -1296,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920109</v>
+        <v>20330051920233</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -1319,21 +1319,21 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920305</v>
+        <v>20330051920259</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
@@ -1342,21 +1342,21 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920310</v>
+        <v>20330051920349</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>55</v>
@@ -1365,21 +1365,21 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920233</v>
+        <v>20330051920180</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>56</v>
@@ -1388,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1396,13 +1396,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920259</v>
+        <v>20330051920039</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>57</v>
@@ -1411,7 +1411,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920349</v>
+        <v>20330051920042</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -1434,7 +1434,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920180</v>
+        <v>20330051920109</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -1457,7 +1457,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920039</v>
+        <v>20330051920286</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
         <v>60</v>
@@ -1480,7 +1480,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1488,13 +1488,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20330051920286</v>
+        <v>20330051920305</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>

--- a/docentes/Morales Vallejo Jorge Luis - Estadisticos 20202.xlsx
+++ b/docentes/Morales Vallejo Jorge Luis - Estadisticos 20202.xlsx
@@ -934,7 +934,7 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -946,7 +946,7 @@
         <v>88.23999999999999</v>
       </c>
       <c r="H7">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
   </sheetData>
